--- a/Pacientes_Guerrero.xlsx
+++ b/Pacientes_Guerrero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F495"/>
+  <dimension ref="A1:N495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,46 @@
           <t>ficha</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>edad</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>medicion_cintura</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>indice_de_masa_corporal</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>aumento_trigliceridos</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>aumento_colesterol_HDL</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>tension_arterial</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>medicacion_anti_hipertensiva</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>glicemia_ayunas</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -489,6 +529,14 @@
           <t>152</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -519,6 +567,14 @@
           <t>211</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -549,6 +605,14 @@
           <t>1402</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -579,6 +643,14 @@
           <t>1404</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,6 +681,14 @@
           <t>1460</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -639,6 +719,14 @@
           <t>1476</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -669,6 +757,14 @@
           <t>1506</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,6 +795,14 @@
           <t>2000</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -729,6 +833,14 @@
           <t>2001</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -759,6 +871,14 @@
           <t>2006</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -789,6 +909,14 @@
           <t>2008</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -819,6 +947,14 @@
           <t>2009</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -849,6 +985,14 @@
           <t>2010</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -879,6 +1023,14 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -909,6 +1061,14 @@
           <t>2025</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -939,6 +1099,14 @@
           <t>2026</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -969,6 +1137,14 @@
           <t>2028</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -999,6 +1175,14 @@
           <t>2029</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1029,6 +1213,14 @@
           <t>2032</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1059,6 +1251,14 @@
           <t>2042</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1089,6 +1289,14 @@
           <t>2043</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1119,6 +1327,14 @@
           <t>2046</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1149,6 +1365,14 @@
           <t>2047</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1179,6 +1403,14 @@
           <t>2049</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1209,6 +1441,14 @@
           <t>2059</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1239,6 +1479,14 @@
           <t>2060</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1269,6 +1517,14 @@
           <t>2067</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1299,6 +1555,14 @@
           <t>2069</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1329,6 +1593,14 @@
           <t>2071</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1359,6 +1631,14 @@
           <t>2803</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1389,6 +1669,14 @@
           <t>3013</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1419,6 +1707,14 @@
           <t>3018</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1449,6 +1745,14 @@
           <t>3038</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1479,6 +1783,14 @@
           <t>3056</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1509,6 +1821,14 @@
           <t>3064</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1539,6 +1859,14 @@
           <t>3066</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1569,6 +1897,14 @@
           <t>3074</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1599,6 +1935,14 @@
           <t>3085</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1629,6 +1973,14 @@
           <t>3086</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1659,6 +2011,14 @@
           <t>3107</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1689,6 +2049,14 @@
           <t>3112</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1719,6 +2087,14 @@
           <t>3143</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1749,6 +2125,14 @@
           <t>3157</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1779,6 +2163,14 @@
           <t>3167</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1809,6 +2201,14 @@
           <t>3168</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1839,6 +2239,14 @@
           <t>3170</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1869,6 +2277,14 @@
           <t>3171</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1899,6 +2315,14 @@
           <t>3175</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1929,6 +2353,14 @@
           <t>3205</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1959,6 +2391,14 @@
           <t>3206</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1989,6 +2429,14 @@
           <t>3210</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2019,6 +2467,14 @@
           <t>3221</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2049,6 +2505,14 @@
           <t>3222</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2079,6 +2543,14 @@
           <t>3223</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2109,6 +2581,14 @@
           <t>3224</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2139,6 +2619,14 @@
           <t>3229</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2169,6 +2657,14 @@
           <t>3233</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2199,6 +2695,14 @@
           <t>3235</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2229,6 +2733,14 @@
           <t>3242</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2259,6 +2771,14 @@
           <t>3244</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2289,6 +2809,14 @@
           <t>3252</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2319,6 +2847,14 @@
           <t>3253</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2349,6 +2885,14 @@
           <t>3254</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2379,6 +2923,14 @@
           <t>3269</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2409,6 +2961,14 @@
           <t>3270</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2439,6 +2999,14 @@
           <t>3276</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2469,6 +3037,14 @@
           <t>3279</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2499,6 +3075,14 @@
           <t>3290</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2529,6 +3113,14 @@
           <t>3291</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2559,6 +3151,14 @@
           <t>3295</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2589,6 +3189,14 @@
           <t>3298</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2619,6 +3227,14 @@
           <t>3304</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2649,6 +3265,14 @@
           <t>3332</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2679,6 +3303,14 @@
           <t>3335</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2709,6 +3341,14 @@
           <t>3351</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2739,6 +3379,14 @@
           <t>3353</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2769,6 +3417,14 @@
           <t>3388</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2799,6 +3455,14 @@
           <t>3400</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2829,6 +3493,14 @@
           <t>3419</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2859,6 +3531,14 @@
           <t>4000</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2889,6 +3569,14 @@
           <t>4005</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2919,6 +3607,14 @@
           <t>4009</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2949,6 +3645,14 @@
           <t>4012</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2979,6 +3683,14 @@
           <t>4017</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3009,6 +3721,14 @@
           <t>4021</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3039,6 +3759,14 @@
           <t>4025</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3069,6 +3797,14 @@
           <t>4028</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3099,6 +3835,14 @@
           <t>4029</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3129,6 +3873,14 @@
           <t>4034</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3159,6 +3911,14 @@
           <t>4046</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3189,6 +3949,14 @@
           <t>4051</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3219,6 +3987,14 @@
           <t>4053</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3249,6 +4025,14 @@
           <t>4057</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3279,6 +4063,14 @@
           <t>4058</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3309,6 +4101,14 @@
           <t>4059</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3339,6 +4139,14 @@
           <t>4061</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3369,6 +4177,14 @@
           <t>4062</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3399,6 +4215,14 @@
           <t>4063</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3429,6 +4253,14 @@
           <t>4078</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3459,6 +4291,14 @@
           <t>4089</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3489,6 +4329,14 @@
           <t>4100</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3519,6 +4367,14 @@
           <t>4105</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3549,6 +4405,14 @@
           <t>4106</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3579,6 +4443,14 @@
           <t>4108</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3609,6 +4481,14 @@
           <t>4115</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3639,6 +4519,14 @@
           <t>4116</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3669,6 +4557,14 @@
           <t>4118</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3699,6 +4595,14 @@
           <t>4119</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3729,6 +4633,14 @@
           <t>4122</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3759,6 +4671,14 @@
           <t>4128</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3789,6 +4709,14 @@
           <t>4131</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3819,6 +4747,14 @@
           <t>4133</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3849,6 +4785,14 @@
           <t>4138</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3879,6 +4823,14 @@
           <t>4141</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3909,6 +4861,14 @@
           <t>4143</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3939,6 +4899,14 @@
           <t>4148</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3969,6 +4937,14 @@
           <t>4156</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3999,6 +4975,14 @@
           <t>4161</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4029,6 +5013,14 @@
           <t>4163</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4059,6 +5051,14 @@
           <t>4166</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4089,6 +5089,14 @@
           <t>4168</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4119,6 +5127,14 @@
           <t>4169</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4149,6 +5165,14 @@
           <t>4177</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4179,6 +5203,14 @@
           <t>4190</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4209,6 +5241,14 @@
           <t>4192</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4239,6 +5279,14 @@
           <t>4194</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4269,6 +5317,14 @@
           <t>4195</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4299,6 +5355,14 @@
           <t>4196</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4329,6 +5393,14 @@
           <t>4197</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4359,6 +5431,14 @@
           <t>4203</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4389,6 +5469,14 @@
           <t>4206</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4419,6 +5507,14 @@
           <t>4220</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4449,6 +5545,14 @@
           <t>4222</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4479,6 +5583,14 @@
           <t>4225</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4509,6 +5621,14 @@
           <t>4226</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4539,6 +5659,14 @@
           <t>4227</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4569,6 +5697,14 @@
           <t>4229</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4599,6 +5735,14 @@
           <t>4235</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4629,6 +5773,14 @@
           <t>4237</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4659,6 +5811,14 @@
           <t>4242</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4689,6 +5849,14 @@
           <t>4245</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4719,6 +5887,14 @@
           <t>4247</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4749,6 +5925,14 @@
           <t>4248</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4779,6 +5963,14 @@
           <t>4254</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4809,6 +6001,14 @@
           <t>4261</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4839,6 +6039,14 @@
           <t>4264</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4869,6 +6077,14 @@
           <t>4270</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4899,6 +6115,14 @@
           <t>4271</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4929,6 +6153,14 @@
           <t>4273</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4959,6 +6191,14 @@
           <t>4279</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4989,6 +6229,14 @@
           <t>4284</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5019,6 +6267,14 @@
           <t>4289</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5049,6 +6305,14 @@
           <t>4291</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5079,6 +6343,14 @@
           <t>4301</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5109,6 +6381,14 @@
           <t>4304</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5139,6 +6419,14 @@
           <t>4306</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5169,6 +6457,14 @@
           <t>4307</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5199,6 +6495,14 @@
           <t>4311</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5229,6 +6533,14 @@
           <t>4313</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5259,6 +6571,14 @@
           <t>4315</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5289,6 +6609,14 @@
           <t>4319</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5319,6 +6647,14 @@
           <t>4320</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5349,6 +6685,14 @@
           <t>4321</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5379,6 +6723,14 @@
           <t>4323</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5409,6 +6761,14 @@
           <t>4324</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5439,6 +6799,14 @@
           <t>4325</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5469,6 +6837,14 @@
           <t>4326</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5499,6 +6875,14 @@
           <t>4330</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5529,6 +6913,14 @@
           <t>4332</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -5559,6 +6951,14 @@
           <t>4334</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -5589,6 +6989,14 @@
           <t>4339</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -5619,6 +7027,14 @@
           <t>4350</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -5649,6 +7065,14 @@
           <t>4353</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -5679,6 +7103,14 @@
           <t>4354</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -5709,6 +7141,14 @@
           <t>4360</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -5739,6 +7179,14 @@
           <t>4361</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5769,6 +7217,14 @@
           <t>4362</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5799,6 +7255,14 @@
           <t>4377</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5829,6 +7293,14 @@
           <t>4378</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -5859,6 +7331,14 @@
           <t>4379</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -5889,6 +7369,14 @@
           <t>4385</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5919,6 +7407,14 @@
           <t>4387</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5949,6 +7445,14 @@
           <t>4395</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5979,6 +7483,14 @@
           <t>4403</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6009,6 +7521,14 @@
           <t>4419</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6039,6 +7559,14 @@
           <t>4424</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6069,6 +7597,14 @@
           <t>4429</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6099,6 +7635,14 @@
           <t>4434</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6129,6 +7673,14 @@
           <t>4450</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6159,6 +7711,14 @@
           <t>4458</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6189,6 +7749,14 @@
           <t>4459</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6219,6 +7787,14 @@
           <t>4473</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6249,6 +7825,14 @@
           <t>4476</t>
         </is>
       </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6279,6 +7863,14 @@
           <t>4479</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6309,6 +7901,14 @@
           <t>4482</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6339,6 +7939,14 @@
           <t>4485</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6369,6 +7977,14 @@
           <t>4486</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6399,6 +8015,14 @@
           <t>4488</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6429,6 +8053,14 @@
           <t>4503</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -6459,6 +8091,14 @@
           <t>4504</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -6489,6 +8129,14 @@
           <t>4508</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -6519,6 +8167,14 @@
           <t>4513</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -6549,6 +8205,14 @@
           <t>4514</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -6579,6 +8243,14 @@
           <t>4516</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -6609,6 +8281,14 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6639,6 +8319,14 @@
           <t>4528</t>
         </is>
       </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -6669,6 +8357,14 @@
           <t>4535</t>
         </is>
       </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -6699,6 +8395,14 @@
           <t>4551</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -6729,6 +8433,14 @@
           <t>4556</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -6759,6 +8471,14 @@
           <t>4567</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -6789,6 +8509,14 @@
           <t>4573</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -6819,6 +8547,14 @@
           <t>4588</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -6849,6 +8585,14 @@
           <t>4595</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -6879,6 +8623,14 @@
           <t>4597</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -6909,6 +8661,14 @@
           <t>4599</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -6939,6 +8699,14 @@
           <t>4602</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -6969,6 +8737,14 @@
           <t>4605</t>
         </is>
       </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -6999,6 +8775,14 @@
           <t>4606</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7029,6 +8813,14 @@
           <t>4613</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7059,6 +8851,14 @@
           <t>4615</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7089,6 +8889,14 @@
           <t>4618</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7119,6 +8927,14 @@
           <t>4619</t>
         </is>
       </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7149,6 +8965,14 @@
           <t>4628</t>
         </is>
       </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7179,6 +9003,14 @@
           <t>4630</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7209,6 +9041,14 @@
           <t>4642</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7239,6 +9079,14 @@
           <t>4648</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7269,6 +9117,14 @@
           <t>4662</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7299,6 +9155,14 @@
           <t>4665</t>
         </is>
       </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7329,6 +9193,14 @@
           <t>4671</t>
         </is>
       </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -7359,6 +9231,14 @@
           <t>4673</t>
         </is>
       </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -7389,6 +9269,14 @@
           <t>4674</t>
         </is>
       </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -7419,6 +9307,14 @@
           <t>4676</t>
         </is>
       </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -7449,6 +9345,14 @@
           <t>4677</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -7479,6 +9383,14 @@
           <t>4681</t>
         </is>
       </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -7509,6 +9421,14 @@
           <t>4684</t>
         </is>
       </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -7539,6 +9459,14 @@
           <t>4685</t>
         </is>
       </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -7569,6 +9497,14 @@
           <t>4686</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -7599,6 +9535,14 @@
           <t>4689</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -7629,6 +9573,14 @@
           <t>4691</t>
         </is>
       </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -7659,6 +9611,14 @@
           <t>4692</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -7689,6 +9649,14 @@
           <t>4694</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -7719,6 +9687,14 @@
           <t>4695</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -7749,6 +9725,14 @@
           <t>4697</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -7779,6 +9763,14 @@
           <t>4698</t>
         </is>
       </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -7809,6 +9801,14 @@
           <t>4702</t>
         </is>
       </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -7839,6 +9839,14 @@
           <t>4703</t>
         </is>
       </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -7869,6 +9877,14 @@
           <t>4706</t>
         </is>
       </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -7899,6 +9915,14 @@
           <t>4707</t>
         </is>
       </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -7929,6 +9953,14 @@
           <t>4709</t>
         </is>
       </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -7959,6 +9991,14 @@
           <t>4711</t>
         </is>
       </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -7989,6 +10029,14 @@
           <t>4713</t>
         </is>
       </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8019,6 +10067,14 @@
           <t>4714</t>
         </is>
       </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8049,6 +10105,14 @@
           <t>4715</t>
         </is>
       </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8079,6 +10143,14 @@
           <t>4716</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8109,6 +10181,14 @@
           <t>4717</t>
         </is>
       </c>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8139,6 +10219,14 @@
           <t>4721</t>
         </is>
       </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8169,6 +10257,14 @@
           <t>4723</t>
         </is>
       </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8199,6 +10295,14 @@
           <t>4724</t>
         </is>
       </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8229,6 +10333,14 @@
           <t>4728</t>
         </is>
       </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8259,6 +10371,14 @@
           <t>4732</t>
         </is>
       </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -8289,6 +10409,14 @@
           <t>4733</t>
         </is>
       </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -8319,6 +10447,14 @@
           <t>4734</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -8349,6 +10485,14 @@
           <t>4736</t>
         </is>
       </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -8379,6 +10523,14 @@
           <t>4738</t>
         </is>
       </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -8409,6 +10561,14 @@
           <t>4739</t>
         </is>
       </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -8439,6 +10599,14 @@
           <t>4740</t>
         </is>
       </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -8469,6 +10637,14 @@
           <t>4741</t>
         </is>
       </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -8499,6 +10675,14 @@
           <t>4744</t>
         </is>
       </c>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -8529,6 +10713,14 @@
           <t>4748</t>
         </is>
       </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -8559,6 +10751,14 @@
           <t>4750</t>
         </is>
       </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -8589,6 +10789,14 @@
           <t>4751</t>
         </is>
       </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -8619,6 +10827,14 @@
           <t>4754</t>
         </is>
       </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -8649,6 +10865,14 @@
           <t>4755</t>
         </is>
       </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -8679,6 +10903,14 @@
           <t>4756</t>
         </is>
       </c>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -8709,6 +10941,14 @@
           <t>4763</t>
         </is>
       </c>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -8739,6 +10979,14 @@
           <t>4764</t>
         </is>
       </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -8769,6 +11017,14 @@
           <t>4765</t>
         </is>
       </c>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -8799,6 +11055,14 @@
           <t>4771</t>
         </is>
       </c>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -8829,6 +11093,14 @@
           <t>4772</t>
         </is>
       </c>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -8859,6 +11131,14 @@
           <t>4773</t>
         </is>
       </c>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -8889,6 +11169,14 @@
           <t>4783</t>
         </is>
       </c>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -8919,6 +11207,14 @@
           <t>4784</t>
         </is>
       </c>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -8949,6 +11245,14 @@
           <t>4790</t>
         </is>
       </c>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -8979,6 +11283,14 @@
           <t>4792</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9009,6 +11321,14 @@
           <t>4796</t>
         </is>
       </c>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9039,6 +11359,14 @@
           <t>4798</t>
         </is>
       </c>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9069,6 +11397,14 @@
           <t>4800</t>
         </is>
       </c>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9099,6 +11435,14 @@
           <t>4802</t>
         </is>
       </c>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9129,6 +11473,14 @@
           <t>4803</t>
         </is>
       </c>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9159,6 +11511,14 @@
           <t>4805</t>
         </is>
       </c>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -9189,6 +11549,14 @@
           <t>4808</t>
         </is>
       </c>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -9219,6 +11587,14 @@
           <t>4809</t>
         </is>
       </c>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -9249,6 +11625,14 @@
           <t>4810</t>
         </is>
       </c>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -9279,6 +11663,14 @@
           <t>4819</t>
         </is>
       </c>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -9309,6 +11701,14 @@
           <t>4820</t>
         </is>
       </c>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -9339,6 +11739,14 @@
           <t>4822</t>
         </is>
       </c>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -9369,6 +11777,14 @@
           <t>4834</t>
         </is>
       </c>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -9399,6 +11815,14 @@
           <t>4837</t>
         </is>
       </c>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -9429,6 +11853,14 @@
           <t>4841</t>
         </is>
       </c>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -9459,6 +11891,14 @@
           <t>4845</t>
         </is>
       </c>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -9489,6 +11929,14 @@
           <t>4848</t>
         </is>
       </c>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -9519,6 +11967,14 @@
           <t>4850</t>
         </is>
       </c>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -9549,6 +12005,14 @@
           <t>4851</t>
         </is>
       </c>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -9579,6 +12043,14 @@
           <t>4853</t>
         </is>
       </c>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -9609,6 +12081,14 @@
           <t>4855</t>
         </is>
       </c>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -9639,6 +12119,14 @@
           <t>4858</t>
         </is>
       </c>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -9669,6 +12157,14 @@
           <t>4860</t>
         </is>
       </c>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -9699,6 +12195,14 @@
           <t>4861</t>
         </is>
       </c>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -9729,6 +12233,14 @@
           <t>4862</t>
         </is>
       </c>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -9759,6 +12271,14 @@
           <t>4868</t>
         </is>
       </c>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -9789,6 +12309,14 @@
           <t>4871</t>
         </is>
       </c>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -9819,6 +12347,14 @@
           <t>4873</t>
         </is>
       </c>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -9849,6 +12385,14 @@
           <t>4875</t>
         </is>
       </c>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -9879,6 +12423,14 @@
           <t>4877</t>
         </is>
       </c>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr"/>
+      <c r="N315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -9909,6 +12461,14 @@
           <t>4880</t>
         </is>
       </c>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -9939,6 +12499,14 @@
           <t>4884</t>
         </is>
       </c>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -9969,6 +12537,14 @@
           <t>4888</t>
         </is>
       </c>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -9999,6 +12575,14 @@
           <t>4889</t>
         </is>
       </c>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10029,6 +12613,14 @@
           <t>4892</t>
         </is>
       </c>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10059,6 +12651,14 @@
           <t>4893</t>
         </is>
       </c>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -10089,6 +12689,14 @@
           <t>4896</t>
         </is>
       </c>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
+      <c r="M322" t="inlineStr"/>
+      <c r="N322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -10119,6 +12727,14 @@
           <t>4898</t>
         </is>
       </c>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr"/>
+      <c r="N323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -10149,6 +12765,14 @@
           <t>4900</t>
         </is>
       </c>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -10179,6 +12803,14 @@
           <t>4901</t>
         </is>
       </c>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -10209,6 +12841,14 @@
           <t>4904</t>
         </is>
       </c>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr"/>
+      <c r="N326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -10239,6 +12879,14 @@
           <t>4905</t>
         </is>
       </c>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
+      <c r="M327" t="inlineStr"/>
+      <c r="N327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -10269,6 +12917,14 @@
           <t>4907</t>
         </is>
       </c>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr"/>
+      <c r="N328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -10299,6 +12955,14 @@
           <t>4908</t>
         </is>
       </c>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr"/>
+      <c r="N329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -10329,6 +12993,14 @@
           <t>4910</t>
         </is>
       </c>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
+      <c r="M330" t="inlineStr"/>
+      <c r="N330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -10359,6 +13031,14 @@
           <t>4914</t>
         </is>
       </c>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr"/>
+      <c r="N331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -10389,6 +13069,14 @@
           <t>4915</t>
         </is>
       </c>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
+      <c r="M332" t="inlineStr"/>
+      <c r="N332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -10419,6 +13107,14 @@
           <t>4920</t>
         </is>
       </c>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
+      <c r="M333" t="inlineStr"/>
+      <c r="N333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -10449,6 +13145,14 @@
           <t>4921</t>
         </is>
       </c>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
+      <c r="M334" t="inlineStr"/>
+      <c r="N334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -10479,6 +13183,14 @@
           <t>4923</t>
         </is>
       </c>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
+      <c r="M335" t="inlineStr"/>
+      <c r="N335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -10509,6 +13221,14 @@
           <t>4924</t>
         </is>
       </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
+      <c r="M336" t="inlineStr"/>
+      <c r="N336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -10539,6 +13259,14 @@
           <t>4926</t>
         </is>
       </c>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
+      <c r="M337" t="inlineStr"/>
+      <c r="N337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -10569,6 +13297,14 @@
           <t>4928</t>
         </is>
       </c>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
+      <c r="N338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -10599,6 +13335,14 @@
           <t>4929</t>
         </is>
       </c>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -10629,6 +13373,14 @@
           <t>4930</t>
         </is>
       </c>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -10659,6 +13411,14 @@
           <t>4931</t>
         </is>
       </c>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -10689,6 +13449,14 @@
           <t>4932</t>
         </is>
       </c>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -10719,6 +13487,14 @@
           <t>4933</t>
         </is>
       </c>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -10749,6 +13525,14 @@
           <t>4935</t>
         </is>
       </c>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr"/>
+      <c r="N344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -10779,6 +13563,14 @@
           <t>4936</t>
         </is>
       </c>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -10809,6 +13601,14 @@
           <t>4937</t>
         </is>
       </c>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
+      <c r="M346" t="inlineStr"/>
+      <c r="N346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -10839,6 +13639,14 @@
           <t>4939</t>
         </is>
       </c>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -10869,6 +13677,14 @@
           <t>4941</t>
         </is>
       </c>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
+      <c r="M348" t="inlineStr"/>
+      <c r="N348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -10899,6 +13715,14 @@
           <t>4942</t>
         </is>
       </c>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
+      <c r="M349" t="inlineStr"/>
+      <c r="N349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -10929,6 +13753,14 @@
           <t>4943</t>
         </is>
       </c>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
+      <c r="M350" t="inlineStr"/>
+      <c r="N350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -10959,6 +13791,14 @@
           <t>4944</t>
         </is>
       </c>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
+      <c r="M351" t="inlineStr"/>
+      <c r="N351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -10989,6 +13829,14 @@
           <t>4945</t>
         </is>
       </c>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
+      <c r="M352" t="inlineStr"/>
+      <c r="N352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -11019,6 +13867,14 @@
           <t>4946</t>
         </is>
       </c>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
+      <c r="M353" t="inlineStr"/>
+      <c r="N353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -11049,6 +13905,14 @@
           <t>4947</t>
         </is>
       </c>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
+      <c r="M354" t="inlineStr"/>
+      <c r="N354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -11079,6 +13943,14 @@
           <t>4948</t>
         </is>
       </c>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
+      <c r="M355" t="inlineStr"/>
+      <c r="N355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -11109,6 +13981,14 @@
           <t>4952</t>
         </is>
       </c>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
+      <c r="M356" t="inlineStr"/>
+      <c r="N356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -11139,6 +14019,14 @@
           <t>4954</t>
         </is>
       </c>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr"/>
+      <c r="N357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -11169,6 +14057,14 @@
           <t>4955</t>
         </is>
       </c>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
+      <c r="M358" t="inlineStr"/>
+      <c r="N358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -11199,6 +14095,14 @@
           <t>4956</t>
         </is>
       </c>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
+      <c r="M359" t="inlineStr"/>
+      <c r="N359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -11229,6 +14133,14 @@
           <t>4957</t>
         </is>
       </c>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
+      <c r="M360" t="inlineStr"/>
+      <c r="N360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -11259,6 +14171,14 @@
           <t>4958</t>
         </is>
       </c>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
+      <c r="M361" t="inlineStr"/>
+      <c r="N361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -11289,6 +14209,14 @@
           <t>4959</t>
         </is>
       </c>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
+      <c r="M362" t="inlineStr"/>
+      <c r="N362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -11319,6 +14247,14 @@
           <t>4961</t>
         </is>
       </c>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
+      <c r="M363" t="inlineStr"/>
+      <c r="N363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -11349,6 +14285,14 @@
           <t>4962</t>
         </is>
       </c>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
+      <c r="M364" t="inlineStr"/>
+      <c r="N364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -11379,6 +14323,14 @@
           <t>4964</t>
         </is>
       </c>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
+      <c r="M365" t="inlineStr"/>
+      <c r="N365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -11409,6 +14361,14 @@
           <t>4967</t>
         </is>
       </c>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
+      <c r="M366" t="inlineStr"/>
+      <c r="N366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -11439,6 +14399,14 @@
           <t>4969</t>
         </is>
       </c>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
+      <c r="M367" t="inlineStr"/>
+      <c r="N367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -11469,6 +14437,14 @@
           <t>4972</t>
         </is>
       </c>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
+      <c r="M368" t="inlineStr"/>
+      <c r="N368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -11499,6 +14475,14 @@
           <t>4974</t>
         </is>
       </c>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
+      <c r="M369" t="inlineStr"/>
+      <c r="N369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -11529,6 +14513,14 @@
           <t>4977</t>
         </is>
       </c>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
+      <c r="M370" t="inlineStr"/>
+      <c r="N370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -11559,6 +14551,14 @@
           <t>4978</t>
         </is>
       </c>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
+      <c r="M371" t="inlineStr"/>
+      <c r="N371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -11589,6 +14589,14 @@
           <t>4979</t>
         </is>
       </c>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
+      <c r="M372" t="inlineStr"/>
+      <c r="N372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -11619,6 +14627,14 @@
           <t>4980</t>
         </is>
       </c>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
+      <c r="M373" t="inlineStr"/>
+      <c r="N373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -11649,6 +14665,14 @@
           <t>4981</t>
         </is>
       </c>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
+      <c r="M374" t="inlineStr"/>
+      <c r="N374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -11679,6 +14703,14 @@
           <t>4982</t>
         </is>
       </c>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
+      <c r="M375" t="inlineStr"/>
+      <c r="N375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -11709,6 +14741,14 @@
           <t>4987</t>
         </is>
       </c>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
+      <c r="M376" t="inlineStr"/>
+      <c r="N376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -11739,6 +14779,14 @@
           <t>4989</t>
         </is>
       </c>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
+      <c r="M377" t="inlineStr"/>
+      <c r="N377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -11769,6 +14817,14 @@
           <t>4990</t>
         </is>
       </c>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
+      <c r="M378" t="inlineStr"/>
+      <c r="N378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -11799,6 +14855,14 @@
           <t>4993</t>
         </is>
       </c>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
+      <c r="M379" t="inlineStr"/>
+      <c r="N379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -11829,6 +14893,14 @@
           <t>4999</t>
         </is>
       </c>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
+      <c r="M380" t="inlineStr"/>
+      <c r="N380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -11859,6 +14931,14 @@
           <t>5079</t>
         </is>
       </c>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
+      <c r="M381" t="inlineStr"/>
+      <c r="N381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -11889,6 +14969,14 @@
           <t>5083</t>
         </is>
       </c>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
+      <c r="M382" t="inlineStr"/>
+      <c r="N382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -11919,6 +15007,14 @@
           <t>5086</t>
         </is>
       </c>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
+      <c r="M383" t="inlineStr"/>
+      <c r="N383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -11949,6 +15045,14 @@
           <t>5087</t>
         </is>
       </c>
+      <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
+      <c r="M384" t="inlineStr"/>
+      <c r="N384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -11979,6 +15083,14 @@
           <t>5088</t>
         </is>
       </c>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
+      <c r="M385" t="inlineStr"/>
+      <c r="N385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -12009,6 +15121,14 @@
           <t>5092</t>
         </is>
       </c>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
+      <c r="M386" t="inlineStr"/>
+      <c r="N386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -12039,6 +15159,14 @@
           <t>5099</t>
         </is>
       </c>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
+      <c r="M387" t="inlineStr"/>
+      <c r="N387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -12069,6 +15197,14 @@
           <t>5103</t>
         </is>
       </c>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
+      <c r="M388" t="inlineStr"/>
+      <c r="N388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -12099,6 +15235,14 @@
           <t>5105</t>
         </is>
       </c>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
+      <c r="M389" t="inlineStr"/>
+      <c r="N389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -12129,6 +15273,14 @@
           <t>5106</t>
         </is>
       </c>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
+      <c r="M390" t="inlineStr"/>
+      <c r="N390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -12159,6 +15311,14 @@
           <t>5111</t>
         </is>
       </c>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
+      <c r="M391" t="inlineStr"/>
+      <c r="N391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -12189,6 +15349,14 @@
           <t>6010</t>
         </is>
       </c>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
+      <c r="M392" t="inlineStr"/>
+      <c r="N392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -12219,6 +15387,14 @@
           <t>6125</t>
         </is>
       </c>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
+      <c r="M393" t="inlineStr"/>
+      <c r="N393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -12249,6 +15425,14 @@
           <t>6156</t>
         </is>
       </c>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
+      <c r="M394" t="inlineStr"/>
+      <c r="N394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -12279,6 +15463,14 @@
           <t>6158</t>
         </is>
       </c>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
+      <c r="M395" t="inlineStr"/>
+      <c r="N395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -12309,6 +15501,14 @@
           <t>6175</t>
         </is>
       </c>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
+      <c r="M396" t="inlineStr"/>
+      <c r="N396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -12339,6 +15539,14 @@
           <t>6178</t>
         </is>
       </c>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
+      <c r="M397" t="inlineStr"/>
+      <c r="N397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -12369,6 +15577,14 @@
           <t>6188</t>
         </is>
       </c>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
+      <c r="M398" t="inlineStr"/>
+      <c r="N398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -12399,6 +15615,14 @@
           <t>6251</t>
         </is>
       </c>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
+      <c r="M399" t="inlineStr"/>
+      <c r="N399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -12429,6 +15653,14 @@
           <t>6285</t>
         </is>
       </c>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
+      <c r="M400" t="inlineStr"/>
+      <c r="N400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -12459,6 +15691,14 @@
           <t>6323</t>
         </is>
       </c>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
+      <c r="M401" t="inlineStr"/>
+      <c r="N401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -12489,6 +15729,14 @@
           <t>6337</t>
         </is>
       </c>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
+      <c r="M402" t="inlineStr"/>
+      <c r="N402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -12519,6 +15767,14 @@
           <t>6468</t>
         </is>
       </c>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
+      <c r="M403" t="inlineStr"/>
+      <c r="N403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -12549,6 +15805,14 @@
           <t>6610</t>
         </is>
       </c>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
+      <c r="M404" t="inlineStr"/>
+      <c r="N404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -12579,6 +15843,14 @@
           <t>6629</t>
         </is>
       </c>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
+      <c r="M405" t="inlineStr"/>
+      <c r="N405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -12609,6 +15881,14 @@
           <t>6731</t>
         </is>
       </c>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
+      <c r="M406" t="inlineStr"/>
+      <c r="N406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -12639,6 +15919,14 @@
           <t>6734</t>
         </is>
       </c>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
+      <c r="M407" t="inlineStr"/>
+      <c r="N407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -12669,6 +15957,14 @@
           <t>6761</t>
         </is>
       </c>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
+      <c r="M408" t="inlineStr"/>
+      <c r="N408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -12699,6 +15995,14 @@
           <t>6861</t>
         </is>
       </c>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
+      <c r="M409" t="inlineStr"/>
+      <c r="N409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -12729,6 +16033,14 @@
           <t>6998</t>
         </is>
       </c>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
+      <c r="M410" t="inlineStr"/>
+      <c r="N410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -12759,6 +16071,14 @@
           <t>10008</t>
         </is>
       </c>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
+      <c r="M411" t="inlineStr"/>
+      <c r="N411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -12789,6 +16109,14 @@
           <t>10019</t>
         </is>
       </c>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -12819,6 +16147,14 @@
           <t>10024</t>
         </is>
       </c>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
+      <c r="M413" t="inlineStr"/>
+      <c r="N413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -12849,6 +16185,14 @@
           <t>10035</t>
         </is>
       </c>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr"/>
+      <c r="N414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -12879,6 +16223,14 @@
           <t>10041</t>
         </is>
       </c>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -12909,6 +16261,14 @@
           <t>10053</t>
         </is>
       </c>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -12939,6 +16299,14 @@
           <t>10062</t>
         </is>
       </c>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -12969,6 +16337,14 @@
           <t>10093</t>
         </is>
       </c>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -12999,6 +16375,14 @@
           <t>10102</t>
         </is>
       </c>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
+      <c r="M419" t="inlineStr"/>
+      <c r="N419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -13029,6 +16413,14 @@
           <t>10103</t>
         </is>
       </c>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
+      <c r="M420" t="inlineStr"/>
+      <c r="N420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -13059,6 +16451,14 @@
           <t>10121</t>
         </is>
       </c>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -13089,6 +16489,14 @@
           <t>10135</t>
         </is>
       </c>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -13119,6 +16527,14 @@
           <t>10139</t>
         </is>
       </c>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
+      <c r="M423" t="inlineStr"/>
+      <c r="N423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -13149,6 +16565,14 @@
           <t>10143</t>
         </is>
       </c>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
+      <c r="M424" t="inlineStr"/>
+      <c r="N424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -13179,6 +16603,14 @@
           <t>10144</t>
         </is>
       </c>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -13209,6 +16641,14 @@
           <t>10146</t>
         </is>
       </c>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
+      <c r="M426" t="inlineStr"/>
+      <c r="N426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -13239,6 +16679,14 @@
           <t>10157</t>
         </is>
       </c>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr"/>
+      <c r="N427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -13269,6 +16717,14 @@
           <t>10175</t>
         </is>
       </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
+      <c r="N428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -13299,6 +16755,14 @@
           <t>10176</t>
         </is>
       </c>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -13329,6 +16793,14 @@
           <t>10179</t>
         </is>
       </c>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
+      <c r="M430" t="inlineStr"/>
+      <c r="N430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -13359,6 +16831,14 @@
           <t>10186</t>
         </is>
       </c>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
+      <c r="M431" t="inlineStr"/>
+      <c r="N431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -13389,6 +16869,14 @@
           <t>10216</t>
         </is>
       </c>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
+      <c r="M432" t="inlineStr"/>
+      <c r="N432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -13419,6 +16907,14 @@
           <t>10238</t>
         </is>
       </c>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
+      <c r="M433" t="inlineStr"/>
+      <c r="N433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -13449,6 +16945,14 @@
           <t>10246</t>
         </is>
       </c>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -13479,6 +16983,14 @@
           <t>10268</t>
         </is>
       </c>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
+      <c r="M435" t="inlineStr"/>
+      <c r="N435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -13509,6 +17021,14 @@
           <t>10269</t>
         </is>
       </c>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
+      <c r="M436" t="inlineStr"/>
+      <c r="N436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -13539,6 +17059,14 @@
           <t>10274</t>
         </is>
       </c>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
+      <c r="M437" t="inlineStr"/>
+      <c r="N437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -13569,6 +17097,14 @@
           <t>10318</t>
         </is>
       </c>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
+      <c r="M438" t="inlineStr"/>
+      <c r="N438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -13599,6 +17135,14 @@
           <t>10322</t>
         </is>
       </c>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
+      <c r="M439" t="inlineStr"/>
+      <c r="N439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -13629,6 +17173,14 @@
           <t>10326</t>
         </is>
       </c>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="inlineStr"/>
+      <c r="N440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -13659,6 +17211,14 @@
           <t>10327</t>
         </is>
       </c>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
+      <c r="M441" t="inlineStr"/>
+      <c r="N441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -13689,6 +17249,14 @@
           <t>10348</t>
         </is>
       </c>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr"/>
+      <c r="N442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -13719,6 +17287,14 @@
           <t>10378</t>
         </is>
       </c>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr"/>
+      <c r="N443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -13749,6 +17325,14 @@
           <t>10379</t>
         </is>
       </c>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr"/>
+      <c r="N444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -13779,6 +17363,14 @@
           <t>10381</t>
         </is>
       </c>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
+      <c r="M445" t="inlineStr"/>
+      <c r="N445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -13809,6 +17401,14 @@
           <t>10405</t>
         </is>
       </c>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr"/>
+      <c r="N446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -13839,6 +17439,14 @@
           <t>10421</t>
         </is>
       </c>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
+      <c r="M447" t="inlineStr"/>
+      <c r="N447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -13869,6 +17477,14 @@
           <t>10471</t>
         </is>
       </c>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
+      <c r="N448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -13899,6 +17515,14 @@
           <t>10493</t>
         </is>
       </c>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
+      <c r="M449" t="inlineStr"/>
+      <c r="N449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -13929,6 +17553,14 @@
           <t>10507</t>
         </is>
       </c>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
+      <c r="M450" t="inlineStr"/>
+      <c r="N450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -13959,6 +17591,14 @@
           <t>10518</t>
         </is>
       </c>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
+      <c r="M451" t="inlineStr"/>
+      <c r="N451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -13989,6 +17629,14 @@
           <t>10520</t>
         </is>
       </c>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
+      <c r="M452" t="inlineStr"/>
+      <c r="N452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -14019,6 +17667,14 @@
           <t>10551</t>
         </is>
       </c>
+      <c r="G453" t="inlineStr"/>
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
+      <c r="M453" t="inlineStr"/>
+      <c r="N453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -14049,6 +17705,14 @@
           <t>10561</t>
         </is>
       </c>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
+      <c r="M454" t="inlineStr"/>
+      <c r="N454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -14079,6 +17743,14 @@
           <t>10562</t>
         </is>
       </c>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
+      <c r="M455" t="inlineStr"/>
+      <c r="N455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -14109,6 +17781,14 @@
           <t>10588</t>
         </is>
       </c>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
+      <c r="M456" t="inlineStr"/>
+      <c r="N456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -14139,6 +17819,14 @@
           <t>10594</t>
         </is>
       </c>
+      <c r="G457" t="inlineStr"/>
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
+      <c r="M457" t="inlineStr"/>
+      <c r="N457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -14169,6 +17857,14 @@
           <t>10607</t>
         </is>
       </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
+      <c r="M458" t="inlineStr"/>
+      <c r="N458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -14199,6 +17895,14 @@
           <t>10616</t>
         </is>
       </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
+      <c r="M459" t="inlineStr"/>
+      <c r="N459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -14229,6 +17933,14 @@
           <t>10670</t>
         </is>
       </c>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
+      <c r="M460" t="inlineStr"/>
+      <c r="N460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -14259,6 +17971,14 @@
           <t>10682</t>
         </is>
       </c>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
+      <c r="M461" t="inlineStr"/>
+      <c r="N461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -14289,6 +18009,14 @@
           <t>10683</t>
         </is>
       </c>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
+      <c r="M462" t="inlineStr"/>
+      <c r="N462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -14319,6 +18047,14 @@
           <t>10689</t>
         </is>
       </c>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
+      <c r="M463" t="inlineStr"/>
+      <c r="N463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -14349,6 +18085,14 @@
           <t>10697</t>
         </is>
       </c>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
+      <c r="M464" t="inlineStr"/>
+      <c r="N464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -14379,6 +18123,14 @@
           <t>10700</t>
         </is>
       </c>
+      <c r="G465" t="inlineStr"/>
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
+      <c r="M465" t="inlineStr"/>
+      <c r="N465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -14409,6 +18161,14 @@
           <t>10733</t>
         </is>
       </c>
+      <c r="G466" t="inlineStr"/>
+      <c r="H466" t="inlineStr"/>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
+      <c r="M466" t="inlineStr"/>
+      <c r="N466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -14439,6 +18199,14 @@
           <t>10734</t>
         </is>
       </c>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr"/>
+      <c r="N467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -14469,6 +18237,14 @@
           <t>10756</t>
         </is>
       </c>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr"/>
+      <c r="N468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -14499,6 +18275,14 @@
           <t>10763</t>
         </is>
       </c>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
+      <c r="M469" t="inlineStr"/>
+      <c r="N469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -14529,6 +18313,14 @@
           <t>10765</t>
         </is>
       </c>
+      <c r="G470" t="inlineStr"/>
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
+      <c r="M470" t="inlineStr"/>
+      <c r="N470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -14559,6 +18351,14 @@
           <t>10787</t>
         </is>
       </c>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr"/>
+      <c r="N471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -14589,6 +18389,14 @@
           <t>10790</t>
         </is>
       </c>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr"/>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
+      <c r="M472" t="inlineStr"/>
+      <c r="N472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -14619,6 +18427,14 @@
           <t>10794</t>
         </is>
       </c>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr"/>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
+      <c r="M473" t="inlineStr"/>
+      <c r="N473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -14649,6 +18465,14 @@
           <t>10855</t>
         </is>
       </c>
+      <c r="G474" t="inlineStr"/>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr"/>
+      <c r="N474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -14679,6 +18503,14 @@
           <t>10871</t>
         </is>
       </c>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr"/>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
+      <c r="M475" t="inlineStr"/>
+      <c r="N475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -14709,6 +18541,14 @@
           <t>10910</t>
         </is>
       </c>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
+      <c r="M476" t="inlineStr"/>
+      <c r="N476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -14739,6 +18579,14 @@
           <t>10913</t>
         </is>
       </c>
+      <c r="G477" t="inlineStr"/>
+      <c r="H477" t="inlineStr"/>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
+      <c r="M477" t="inlineStr"/>
+      <c r="N477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -14769,6 +18617,14 @@
           <t>10914</t>
         </is>
       </c>
+      <c r="G478" t="inlineStr"/>
+      <c r="H478" t="inlineStr"/>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
+      <c r="M478" t="inlineStr"/>
+      <c r="N478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -14799,6 +18655,14 @@
           <t>10921</t>
         </is>
       </c>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
+      <c r="M479" t="inlineStr"/>
+      <c r="N479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -14829,6 +18693,14 @@
           <t>10922</t>
         </is>
       </c>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr"/>
+      <c r="N480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -14859,6 +18731,14 @@
           <t>10937</t>
         </is>
       </c>
+      <c r="G481" t="inlineStr"/>
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
+      <c r="N481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -14889,6 +18769,14 @@
           <t>10940</t>
         </is>
       </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr"/>
+      <c r="N482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -14919,6 +18807,14 @@
           <t>10945</t>
         </is>
       </c>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
+      <c r="N483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -14949,6 +18845,14 @@
           <t>10949</t>
         </is>
       </c>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
+      <c r="M484" t="inlineStr"/>
+      <c r="N484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -14979,6 +18883,14 @@
           <t>10950</t>
         </is>
       </c>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="inlineStr"/>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
+      <c r="M485" t="inlineStr"/>
+      <c r="N485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -15009,6 +18921,14 @@
           <t>10981</t>
         </is>
       </c>
+      <c r="G486" t="inlineStr"/>
+      <c r="H486" t="inlineStr"/>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
+      <c r="M486" t="inlineStr"/>
+      <c r="N486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -15039,6 +18959,14 @@
           <t>10997</t>
         </is>
       </c>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
+      <c r="M487" t="inlineStr"/>
+      <c r="N487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -15069,6 +18997,14 @@
           <t>11036</t>
         </is>
       </c>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
+      <c r="N488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -15099,6 +19035,14 @@
           <t>11037</t>
         </is>
       </c>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr"/>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
+      <c r="M489" t="inlineStr"/>
+      <c r="N489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -15129,6 +19073,14 @@
           <t>11047</t>
         </is>
       </c>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
+      <c r="M490" t="inlineStr"/>
+      <c r="N490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -15159,6 +19111,14 @@
           <t>11081</t>
         </is>
       </c>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
+      <c r="M491" t="inlineStr"/>
+      <c r="N491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -15189,6 +19149,14 @@
           <t>11094</t>
         </is>
       </c>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr"/>
+      <c r="N492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -15219,6 +19187,14 @@
           <t>11157</t>
         </is>
       </c>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr"/>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr"/>
+      <c r="N493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -15249,6 +19225,14 @@
           <t>4897</t>
         </is>
       </c>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
+      <c r="M494" t="inlineStr"/>
+      <c r="N494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -15279,6 +19263,14 @@
           <t>11260</t>
         </is>
       </c>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
+      <c r="M495" t="inlineStr"/>
+      <c r="N495" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
